--- a/pred_ohlcv/54_21/2020-01-22 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 DAC ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>933581.7283000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>957211.5712000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>957211.5712000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>916557.9661000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>953041.4044000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>917175.7691000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>956743.6847000001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>934255.9545000001</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>934255.9545000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>973353.3042000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>973353.3042000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>938348.8259000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>917445.0467000002</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>955075.4441000002</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>937052.2936000002</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>983408.6771000002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>946176.7170000002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>989771.2060000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>989771.2060000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>947660.4474000002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>947660.4474000002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>989574.2426000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>997000.7870000004</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1036924.0293</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1036924.0293</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>1008196.5948</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1008196.5948</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1021352.6634</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>931866.7459000004</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>910521.3365000004</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1037948.2145</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1073863.8156</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1043710.76</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1058141.0184</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1105424.6751</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1066582.7484</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1019208.2167</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1066964.9021</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1118047.4981</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1069556.0479</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1093677.2224</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1107787.2614</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1107787.2614</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1198149.2137</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1160697.3935</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1198528.1111</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1173591.4303</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1243527.8788</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1260016.18</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1304721.8309</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1266762.4987</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1308505.0268</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1308505.0268</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1357625.5506</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1314138.8172</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1314138.8172</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1300641.4318</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1314112.2889</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1314112.2889</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1551558.8547</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1488791.0088</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1441926.4859</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1404847.12</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>1443542.5788</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1461582.6536</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1443949.0328</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1443949.0328</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1482974.6737</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>1465636.6866</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>1534482.1082</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1493572.1638</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>1488653.4096</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1488653.4096</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1488653.4096</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1445170.6139</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>1400895.0154</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1403303.412800001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1447234.715300001</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1424252.6812</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1380156.986</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1308130.372</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>1344952.467600001</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1389141.945800001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1333671.005000001</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1406171.684800001</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1372092.550700001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1290160.657500001</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>491700.2620000007</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>391208.3060000007</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>391208.3060000007</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>446098.4109000007</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>387061.8374000004</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>473616.7746000004</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>399968.9118000004</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>257643.7215000005</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>221998.6361000005</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>176221.0012000005</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>214955.1295000004</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>253349.4586000004</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-3272578.355784107</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-3272578.355784107</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-3269754.724484107</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-3269754.724484107</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-3230722.958984106</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-3230722.958984106</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-3275913.696884106</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-3240452.702984106</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-3303963.688984106</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-3282709.098084107</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-3252894.464284107</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-3557186.236084105</v>
       </c>
       <c r="H745">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-3581826.442684106</v>
       </c>
       <c r="H746">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-3539988.900484106</v>
       </c>
       <c r="H747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-3582392.122484106</v>
       </c>
       <c r="H748">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-3582392.122484106</v>
       </c>
       <c r="H749">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-3582392.122484106</v>
       </c>
       <c r="H750">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-3429680.303684106</v>
       </c>
       <c r="H751">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-3388111.165684106</v>
       </c>
       <c r="H752">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-3388111.165684106</v>
       </c>
       <c r="H753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-3439000.531884106</v>
       </c>
       <c r="H755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-3501676.575884107</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-3533661.321484107</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-3554372.237984107</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-3511484.295384107</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-3450573.096584107</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-3485363.560484107</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3485363.560484107</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-3453832.337584107</v>
       </c>
       <c r="H798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-3500847.572184107</v>
       </c>
       <c r="H799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-3500847.572184107</v>
       </c>
       <c r="H800">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-3458580.217984107</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-3438799.864184107</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-3489593.181484107</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-3689502.293984104</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-3731909.168884105</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-3709852.624884104</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-3755188.115184105</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-3804576.222984104</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-3753673.142384104</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-3816839.689684105</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-5084080.416384106</v>
       </c>
       <c r="H1122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-5012144.086084106</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29668,7 +29668,7 @@
         <v>-5010405.769284107</v>
       </c>
       <c r="H1126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:8">
@@ -29694,7 +29694,7 @@
         <v>-5072478.850784107</v>
       </c>
       <c r="H1127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1128" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-5045085.074484107</v>
       </c>
       <c r="H1128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-5045085.074484107</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-5106771.720384107</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-5052066.858084107</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-5088750.496684107</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-5260081.894084107</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-5299077.716184108</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-5202798.461784107</v>
       </c>
       <c r="H1165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-5175724.180184106</v>
       </c>
       <c r="H1167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-5142389.432784107</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-5096032.305884107</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-5071277.426684107</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-5027487.896084107</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-4745975.470735429</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-4796921.820135429</v>
       </c>
       <c r="H1228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-4796921.820135429</v>
       </c>
       <c r="H1229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-4769142.909035428</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-4808002.990535429</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-4766164.271635429</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4678339.622935429</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4725842.349235429</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4687920.30523543</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-4718888.30563543</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 DAC ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>933581.7283000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>957211.5712000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>957211.5712000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>916557.9661000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>953041.4044000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>917175.7691000002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>956743.6847000001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>934255.9545000001</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>934255.9545000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>973353.3042000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>973353.3042000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>938348.8259000002</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>917445.0467000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>955075.4441000002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>937052.2936000002</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>983408.6771000002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>946176.7170000002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>989771.2060000002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>989771.2060000002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>947660.4474000002</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>947660.4474000002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>989574.2426000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>974087.9821000003</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>1042916.5885</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>1019349.4976</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>983007.4900000003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>1007655.2427</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1057269.2106</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>997000.7870000004</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>1036924.0293</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1036924.0293</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1008196.5948</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>1021352.6634</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>955333.1169000005</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>931866.7459000004</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>975295.2719000005</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>910521.3365000004</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>1037948.2145</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1077275.7824</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1066582.7484</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>1107787.2614</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1107787.2614</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1147059.1213</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>1198149.2137</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>1160697.3935</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1198528.1111</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1173591.4303</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1243527.8788</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1260016.18</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>1304721.8309</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>1266762.4987</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>1308505.0268</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>1308505.0268</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>1357625.5506</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1314138.8172</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>1314138.8172</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>1300641.4318</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>1363734.1334</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>1314112.2889</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>1314112.2889</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>1551558.8547</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>1488791.0088</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>1441926.4859</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>1404847.12</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1461582.6536</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1443949.0328</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1482974.6737</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1493572.1638</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>1488653.4096</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1445170.6139</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>1403303.412800001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>1447234.715300001</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>1424252.6812</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>1308130.372</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>1389141.945800001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>1333671.005000001</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1406171.684800001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>1372092.550700001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1290160.657500001</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>491700.2620000007</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>391208.3060000007</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>391208.3060000007</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>446098.4109000007</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>387061.8374000004</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>343090.0266000004</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>399154.9518000004</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>488312.7801000003</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>395131.2645000004</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>473616.7746000004</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>473616.7746000004</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>399968.9118000004</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>332652.0395000004</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>297146.6757000004</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>257643.7215000005</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>221998.6361000005</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>176221.0012000005</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>214955.1295000004</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>253349.4586000004</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-3485363.560484107</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-3785752.818684103</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-3689502.293984104</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-3731909.168884105</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-3709852.624884104</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-3755188.115184105</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-3804576.222984104</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-3753673.142384104</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-3816839.689684105</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-3600222.820984105</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-3632812.532184105</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-3597876.727584105</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-3553691.879884105</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-3620734.887484105</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-3582752.601584105</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-3541387.579984105</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-3541387.579984105</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-3541387.579984105</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-3541387.579984105</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-3586789.589884105</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-3536258.945684105</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-3536258.945684105</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-3567874.652884105</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-3687586.375584105</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-3687586.375584105</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-3743208.616584105</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -29564,7 +29564,7 @@
         <v>-5084080.416384106</v>
       </c>
       <c r="H1122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:8">
@@ -29590,7 +29590,7 @@
         <v>-5043964.700184106</v>
       </c>
       <c r="H1123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-5054894.339684106</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-5045085.074484107</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-5106771.720384107</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29902,7 +29902,7 @@
         <v>-5110671.818284106</v>
       </c>
       <c r="H1135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1136" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-5260081.894084107</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-5299077.716184108</v>
       </c>
       <c r="H1159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:8">
@@ -30552,7 +30552,7 @@
         <v>-5253414.714084107</v>
       </c>
       <c r="H1160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1161" spans="1:8">
@@ -30630,7 +30630,7 @@
         <v>-5292962.248884107</v>
       </c>
       <c r="H1163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1164" spans="1:8">
@@ -30656,7 +30656,7 @@
         <v>-5246670.719884107</v>
       </c>
       <c r="H1164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1165" spans="1:8">
@@ -30682,7 +30682,7 @@
         <v>-5202798.461784107</v>
       </c>
       <c r="H1165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1166" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>-5242987.367684106</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>-5175724.180184106</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>-5096157.683384106</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-5139319.247484107</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30838,7 +30838,7 @@
         <v>-5092711.936484107</v>
       </c>
       <c r="H1171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1172" spans="1:8">
@@ -30864,7 +30864,7 @@
         <v>-5048697.805584107</v>
       </c>
       <c r="H1172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1173" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-5094547.595384107</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-5142389.432784107</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-5096032.305884107</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-5118779.580584107</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-5071277.426684107</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-5027487.896084107</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-5071801.562884106</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-5071801.562884106</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-5006186.369335428</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-4947463.537935428</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-4965117.096735428</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-5006517.216235428</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-4962297.744335428</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-5048011.709035428</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-4997030.893235428</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-4745975.470735429</v>
       </c>
       <c r="H1227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32320,7 +32320,7 @@
         <v>-4796921.820135429</v>
       </c>
       <c r="H1228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:8">
@@ -32346,7 +32346,7 @@
         <v>-4796921.820135429</v>
       </c>
       <c r="H1229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-4769142.909035428</v>
       </c>
       <c r="H1230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-4808002.990535429</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-4766164.271635429</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-4678339.622935429</v>
       </c>
       <c r="H1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-4725842.349235429</v>
       </c>
       <c r="H1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-4687920.30523543</v>
       </c>
       <c r="H1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-4718888.30563543</v>
       </c>
       <c r="H1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
